--- a/descriptions/actions.xlsx
+++ b/descriptions/actions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ActionInfo" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
   <si>
     <t xml:space="preserve">action_name</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t xml:space="preserve">display_vars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">await_user</t>
   </si>
   <si>
     <t xml:space="preserve">script</t>
@@ -296,10 +299,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -434,6 +437,20 @@
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -454,8 +471,8 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -469,147 +486,147 @@
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/descriptions/actions.xlsx
+++ b/descriptions/actions.xlsx
@@ -116,14 +116,13 @@
     <t>mk_graph</t>
   </si>
   <si>
-    <t xml:space="preserve">**/mk_graph.ipynb
-</t>
+    <t>**/mk_graph.ipynb</t>
   </si>
   <si>
     <t>config_path</t>
   </si>
   <si>
-    <t>variables</t>
+    <t/>
   </si>
   <si>
     <t>action_name</t>
@@ -252,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -261,6 +260,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -577,10 +579,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="22.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="44.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="92.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="23.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="44.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="92.57642857142856" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
@@ -615,7 +617,7 @@
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -629,7 +631,7 @@
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -643,7 +645,7 @@
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -657,7 +659,7 @@
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -671,7 +673,7 @@
       <c r="A7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -691,12 +693,12 @@
       <c r="C8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -705,7 +707,7 @@
       <c r="C9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -739,13 +741,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="27.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="33.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="52.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="43.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="27.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="33.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="52.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="43.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -922,7 +924,7 @@
       <c r="E9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G9" s="3"/>

--- a/descriptions/actions.xlsx
+++ b/descriptions/actions.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
   <si>
     <t xml:space="preserve">action_name</t>
   </si>
@@ -207,6 +207,15 @@
   </si>
   <si>
     <t xml:space="preserve">**/correct_annotations2.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fiber_events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**/fiber_events.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fiber_event_path, config_path</t>
   </si>
 </sst>
 </file>
@@ -303,7 +312,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -322,6 +331,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -351,7 +364,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.3"/>
@@ -515,13 +528,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.72"/>
@@ -728,6 +741,23 @@
         <v>36</v>
       </c>
     </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/descriptions/actions.xlsx
+++ b/descriptions/actions.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
   <si>
     <t xml:space="preserve">action_name</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t xml:space="preserve">**/rtxi_convert_song.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly_counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**/poly_counts.ipynb</t>
   </si>
 </sst>
 </file>
@@ -237,7 +243,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -275,6 +281,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -318,7 +330,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -344,6 +356,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -534,10 +550,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -792,6 +808,20 @@
         <v>32</v>
       </c>
     </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
